--- a/db.xlsx
+++ b/db.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>student</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>student1@example.com</t>
+  </si>
+  <si>
+    <t>p1,p2,p3</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -401,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +441,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
